--- a/data/trans_camb/P22_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 18,17</t>
+          <t>-6,02; 15,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 15,82</t>
+          <t>-4,51; 15,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 18,97</t>
+          <t>-8,78; 18,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 3,99</t>
+          <t>-11,9; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,55</t>
+          <t>-10,07; 9,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,97</t>
+          <t>-8,33; 16,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 7,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 9,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 14,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 87,22</t>
+          <t>-18,09; 75,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 75,95</t>
+          <t>-13,44; 77,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 90,35</t>
+          <t>-27,93; 82,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 9,65</t>
+          <t>-23,64; 20,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 16,39</t>
+          <t>-19,17; 26,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 20,49</t>
+          <t>-16,6; 44,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 23,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 24,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 30,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 42,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 4,5</t>
+          <t>-11,02; 5,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 5,17</t>
+          <t>-12,26; 4,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 3,38</t>
+          <t>-10,22; 7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 5,67</t>
+          <t>-11,4; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,75</t>
+          <t>-8,51; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,53</t>
+          <t>-11,28; 3,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 2,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 2,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 2,23</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 3,33</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-3,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-9,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,16%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 13,44</t>
+          <t>-24,85; 15,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 15,39</t>
+          <t>-27,55; 13,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 10,11</t>
+          <t>-23,1; 22,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 9,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 13,33</t>
+          <t>-22,53; 5,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 1,97</t>
+          <t>-16,96; 12,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 6,37</t>
+          <t>-22,94; 9,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 6,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 5,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,67; 5,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 8,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 1,87</t>
+          <t>-11,06; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 1,62</t>
+          <t>-10,4; 7,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 7,17</t>
+          <t>-11,16; 6,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 3,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2,69</t>
+          <t>-6,03; 8,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,87</t>
+          <t>-11,08; 3,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 1,32</t>
+          <t>-12,03; 3,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 1,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 4,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 2,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 2,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 5,48</t>
+          <t>-25,73; 19,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 5,05</t>
+          <t>-23,92; 22,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 19,34</t>
+          <t>-26,01; 22,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 21,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 6,16</t>
+          <t>-12,44; 21,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 7,45</t>
+          <t>-21,45; 7,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 3,61</t>
+          <t>-24,47; 9,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 4,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 13,27</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 7,64</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-20,14; 6,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 3,03</t>
+          <t>-8,08; 6,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 4,1</t>
+          <t>-8,9; 5,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 1,45</t>
+          <t>-10,84; 3,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,0</t>
+          <t>-11,9; 2,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 2,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 1,55</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,05%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-8,56%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 8,99</t>
+          <t>-21,14; 20,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 12,36</t>
+          <t>-23,93; 16,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 3,29</t>
+          <t>-23,55; 7,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 2,53</t>
+          <t>-25,45; 6,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 3,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 5,92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; 4,08</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 3,4</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 3,18</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 3,9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 1,47</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 2,32</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 1,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 0,85</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 1,96</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,72</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,37%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-4,54%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-4,45%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; 9,83</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,62; 9,33</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 11,46</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 3,43</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; 5,51</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,94; 3,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 2,25</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 5,03</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 4,29</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
